--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.24313438848231342, 0.22807726009317775, 0.18786307148781173, 0.17827591184769306, 0.40543785937290117, 0.11673511512741246, 0.1245904039469258, 0.062492425647096096, 0.0650209122358604, 0.017868192808470726, 0.018283071039443387, 0.02997217193708922, 0.03338297220103534, 0.04912243910981346, 0.013995660412526301, 0.019520701918165663, 0.004640502310788266, 0.042267882353372165, 0.041498659335557755]</t>
+    <t>[0.9999999999999999, 0.26106732725587745, 0.21280658769846864, 0.18530453660527915, 0.19358804061053356, 0.38822353941157006, 0.11753214282261931, 0.09628826260800163, 0.04107700761261552, 0.06740511094199222, 2.696898192855705e-05, 0.0007064898455680466, 0.008349365799359344, 0.010093739824084317, 0.03705100645908723, -0.008397211666626674, -0.0017107622328299886, -0.01431526915190963, 0.03313045865462108, 0.017641536576249135]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.2237005394391424, 0.24193547414008984, 0.1867812922697022, 0.15051452684525699, 0.2920865368972126, 0.11409170326149035, 0.15433111304588826, 0.09382563982188796, 0.07907618101043881, 0.051600215024133395, 0.0643274123455422, 0.06436865044129719, 0.06953490476527115, 0.08382164172868767, 0.05318614501786818, 0.060788736756055804, 0.035325332113870594, 0.04045628581556891, 0.056161008731325415]</t>
+    <t>[1.0, 0.2327024025292807, 0.21122730975867723, 0.17725693372802087, 0.14523747743603269, 0.273420657615024, 0.11294257557126536, 0.12748543767261059, 0.08118207967815194, 0.06734918909274266, 0.03947556012582784, 0.051191439495166906, 0.04865601534863883, 0.053451249240821404, 0.07653074041577203, 0.040378220947284424, 0.05400854688614327, 0.018628761892072156, 0.03851933777439422, 0.033597445210607736]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.03913338072760653, 0.020874618519919307, -0.013772535428039962, -0.022820436896887446, 0.36871159445622675, 0.018098668924043815, 0.035176792099186636, -0.016425063170030743, -0.038720528169120486, -0.06814024934802895, -0.06644768944194926, -0.047730441040245014, -0.013154894591108272, -0.004537972315194989, -0.04249198714239592, -0.03161990509103844, -0.07489218063751679, -0.02810092173319921, -0.025840168682221096]</t>
+    <t>[1.0, 0.02573486851203955, 0.0015710839042032485, -0.022769811650114418, -0.030112163396515196, 0.35706895948981654, 0.014763016189585013, 0.016767749287065883, -0.031040846760766332, -0.0314173078087463, -0.07786642283245827, -0.07209846803747898, -0.0585581529696338, -0.01395421147950501, 0.0015540352602608969, -0.04728804982036745, -0.03955523243373323, -0.07912840478039397, -0.020209928991535484, -0.029570264828236985]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.03329725706266905, 0.014974607464742384, -0.018467284287051224, -0.027453131000215843, 0.36409805119274957, 0.015468086317117132, 0.03233454061408948, -0.01842866708820073, -0.039908578049522435, -0.06905926144406371, -0.0674786921506437, -0.04865118921439881, -0.013365225752445673, -0.0044437035239168875, -0.04256092918061245, -0.03098647679531979, -0.07477324973963394, -0.028062415154028398, -0.0260257536905864]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.09071508327853119, 0.07460949812822336, 0.047103457004673145, 0.032956624299207204, 0.26327187823236897, -0.004547668357399099, 0.0036490514608332613, -0.035617818598510695, -0.03408407201077348, -0.07791255090882947, -0.061677421985105105, -0.05312756094979853, -0.02861495981134709, -0.014350636384890772, -0.05434678551296658, -0.03930066488466127, -0.04974780615952934, -0.022230318473961924, -0.017921063674342937]</t>
+    <t>[0.9999999999999999, 0.026422080136563483, -0.0005556620091074283, -0.024115094362629905, -0.03000326156467007, 0.35753942478363326, 0.015716435573832236, 0.01605491278111625, -0.03156720915181818, -0.030713317251441732, -0.0765002370066913, -0.07318333794870993, -0.05915773884003885, -0.014618554612888827, 0.0005497908719769208, -0.04752797410745079, -0.039693915410176764, -0.07919951753320485, -0.02006315725933448, -0.029908405187217903]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.09724507159753526, 0.07181833348276442, 0.052412858121071576, 0.04803503060565373, 0.256129136937929, -0.0013701382589351536, -0.0005782933448187097, -0.04702468791079992, -0.02351109474500065, -0.07807620111662228, -0.0640318214012896, -0.05503427631844634, -0.034354139225936164, -0.009353210029520788, -0.05610617799292541, -0.046238704806255644, -0.05616256541811161, -0.012864277204530346, -0.022790598152768838]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001355084121477351</v>
+        <v>0.0008508143752312533</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.784460422979921</v>
+        <v>0.7827615911638615</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0124336925513482</v>
+        <v>0.0128064591397295</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8105101649405447</v>
+        <v>0.7985294117647059</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03112167765488559</v>
+        <v>-0.0323797923443367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7400478591889543</v>
+        <v>0.7401583960011209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.009780676976698474</v>
+        <v>0.01002174191600099</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02903522103190571</v>
+        <v>0.02911954184775502</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7308083319954062</v>
+        <v>0.7257135347815349</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.008304740614706463</v>
+        <v>0.008551516766166438</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7.755880483153177E-05</v>
+        <v>0.0001418582543074643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0002786965357638375</v>
+        <v>0.0005940176682119875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>0.08045190067059058</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9299999999999999</v>
+        <v>0.8780386739425166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008095703757045144</v>
+        <v>-0.001702897179315271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0003089844554185344</v>
+        <v>0.0005562539495772171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04987246469385138</v>
+        <v>0.058996798770054</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9226407344809797</v>
+        <v>0.8840047700633431</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01507590581183422</v>
+        <v>0.03664180900297866</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008968891137373567</v>
+        <v>0.0006554969042932606</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0004708039690402119</v>
+        <v>0.0007633141250623466</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06739404963471907</v>
+        <v>0.07375687319921803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8832691597146155</v>
+        <v>0.8486602057783299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0205642650368734</v>
+        <v>0.02843397606218394</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7589456554553519</v>
+        <v>0.7524462657708358</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.26106732725587745, 0.21280658769846864, 0.18530453660527915, 0.19358804061053356, 0.38822353941157006, 0.11753214282261931, 0.09628826260800163, 0.04107700761261552, 0.06740511094199222, 2.696898192855705e-05, 0.0007064898455680466, 0.008349365799359344, 0.010093739824084317, 0.03705100645908723, -0.008397211666626674, -0.0017107622328299886, -0.01431526915190963, 0.03313045865462108, 0.017641536576249135]</t>
+    <t>[0.9999999999999999, 0.01961579970753712, -0.04943807156094064, -0.08845748901224221, -0.06319791329113343, 0.08426028056372001, 0.041465496117445565, 0.06269606292350176, 0.02189001395998311, 0.03347874560399804, -0.036407113402379995, -0.04806140609213703, 0.00010435876312211298, 0.037290723862806144, 0.060547275675394856, 0.007070870783345106, 0.0037079404942592965, -0.035063526513363974, -0.01355569168909592, -0.012762033644481337]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2327024025292807, 0.21122730975867723, 0.17725693372802087, 0.14523747743603269, 0.273420657615024, 0.11294257557126536, 0.12748543767261059, 0.08118207967815194, 0.06734918909274266, 0.03947556012582784, 0.051191439495166906, 0.04865601534863883, 0.053451249240821404, 0.07653074041577203, 0.040378220947284424, 0.05400854688614327, 0.018628761892072156, 0.03851933777439422, 0.033597445210607736]</t>
+    <t>[1.0, 0.09589449722006389, -0.00955350793759561, 0.0014675186852311718, 0.016972055997117447, 0.03566264772384684, -0.018150973590492846, 0.028603217436567668, -0.0037931927637253884, 0.02168541645559285, -0.0012983611908527354, 0.009175382740956447, 0.018189305728656808, 0.019514302607564957, 0.030378382594517892, 0.03140236853485812, 0.0007228280028319554, 0.02570631282528608, -0.012546011011400836, -0.022453455812434076]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.02573486851203955, 0.0015710839042032485, -0.022769811650114418, -0.030112163396515196, 0.35706895948981654, 0.014763016189585013, 0.016767749287065883, -0.031040846760766332, -0.0314173078087463, -0.07786642283245827, -0.07209846803747898, -0.0585581529696338, -0.01395421147950501, 0.0015540352602608969, -0.04728804982036745, -0.03955523243373323, -0.07912840478039397, -0.020209928991535484, -0.029570264828236985]</t>
+    <t>[1.0, 0.04862741777659727, -0.04337281117969399, -0.11659102928073099, -0.0936167171415675, 0.11198320972385668, 0.06310276090488323, 0.07011427773845622, 0.054570794839879075, 0.024963632768077622, -0.059254500515258386, -0.057135089457150796, -0.0017462836607806775, 0.0672070867937096, 0.0660248408805556, 0.030487411083917403, 0.003337284532397537, -0.05395119855142194, -0.04799287651963639, -0.012161573988790544]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.026422080136563483, -0.0005556620091074283, -0.024115094362629905, -0.03000326156467007, 0.35753942478363326, 0.015716435573832236, 0.01605491278111625, -0.03156720915181818, -0.030713317251441732, -0.0765002370066913, -0.07318333794870993, -0.05915773884003885, -0.014618554612888827, 0.0005497908719769208, -0.04752797410745079, -0.039693915410176764, -0.07919951753320485, -0.02006315725933448, -0.029908405187217903]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.09724507159753526, 0.07181833348276442, 0.052412858121071576, 0.04803503060565373, 0.256129136937929, -0.0013701382589351536, -0.0005782933448187097, -0.04702468791079992, -0.02351109474500065, -0.07807620111662228, -0.0640318214012896, -0.05503427631844634, -0.034354139225936164, -0.009353210029520788, -0.05610617799292541, -0.046238704806255644, -0.05616256541811161, -0.012864277204530346, -0.022790598152768838]</t>
+    <t>[1.0, 0.048650263111892564, -0.04335383026598802, -0.11657968737796189, -0.0936101431440052, 0.11198906383720478, 0.06311118157339579, 0.0701248729884461, 0.05458455327235358, 0.024970552615187908, -0.059245748704233464, -0.05712643280936157, -0.0017400869801134612, 0.06721146831027276, 0.06602645517773753, 0.03049113718010807, 0.0033414918901165007, -0.053943892796704807, -0.04798850000771013, -0.012155796885177284]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.019195973676209004, -0.049400687144011565, -0.0885205651572413, -0.06355320353737376, 0.08380896211496351, 0.041455262804269664, 0.06245785920698182, 0.021986398175759356, 0.03369840271481277, -0.03643887109377647, -0.048151198595685556, -0.0003614505645174576, 0.03760413537291535, 0.060435621426453506, 0.007077469579872006, 0.0040685829305930074, -0.03482963149066882, -0.01357301682643516, -0.012974957284723272]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008508143752312533</v>
+        <v>0.002819337091903754</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7827615911638615</v>
+        <v>0.7518128636896441</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0128064591397295</v>
+        <v>0.09572526895753761</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0323797923443367</v>
+        <v>-0.1991060930081394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7401583960011209</v>
+        <v>0.5266506103352919</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01002174191600099</v>
+        <v>0.04797501166961602</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02911954184775502</v>
+        <v>0.1362049765512335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7257135347815349</v>
+        <v>0.6163612622924162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.008551516766166438</v>
+        <v>0.04668668767180976</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001418582543074643</v>
+        <v>6.850956479803724E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0005940176682119875</v>
+        <v>0.01557196050730895</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08045190067059058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8780386739425166</v>
+        <v>0.8570705910508745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001702897179315271</v>
+        <v>7.774552107398647E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0005562539495772171</v>
+        <v>0.01555262446802603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.058996798770054</v>
+        <v>3.414219926850568E-16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8840047700633431</v>
+        <v>0.8572793861801071</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.03664180900297866</v>
+        <v>-6.895066249840756E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0006554969042932606</v>
+        <v>0.002800769253995617</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0007633141250623466</v>
+        <v>0.01340378975500062</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07375687319921803</v>
+        <v>8.671616135718278E-10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8486602057783299</v>
+        <v>0.8595900300550963</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02843397606218394</v>
+        <v>1.090133908609534E-10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7524462657708358</v>
+        <v>0.7520382037119598</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.0158660792809203, -0.05681692004326096, -0.08509976275698754, -0.07771427061592064, 0.08871110263129335, 0.02781787022600268, 0.054387409794193646, 0.02790873842268036, 0.02340610919155348, -0.04659637156719235, -0.04947014897483366, -0.008954641920213825, 0.04111046968359018, 0.061717522226846344, 0.021754229328255676, 0.0028785585920009676, -0.029282903689154708, -0.025064265103748935, -0.009068794483166836]</t>
+    <t>[1.0, 0.24313438848231342, 0.22807726009317775, 0.18786307148781173, 0.17827591184769306, 0.40543785937290117, 0.11673511512741246, 0.1245904039469258, 0.062492425647096096, 0.0650209122358604, 0.017868192808470726, 0.018283071039443387, 0.02997217193708922, 0.03338297220103534, 0.04912243910981346, 0.013995660412526301, 0.019520701918165663, 0.004640502310788266, 0.042267882353372165, 0.041498659335557755]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08953912721398506, -0.013244022485509542, -0.001489534756721955, 0.02280193023740656, 0.04237658184687464, -0.006472313786019685, 0.014623444153776272, 0.004124963596164638, 0.018132404044767177, -0.0007878771992352065, -0.00425943609558803, 0.0068360764850633965, 0.018100726055275664, 0.036485358843619656, 0.024638290483527947, -0.0039012292358724114, 0.013230534930672864, -0.0031405825547378657, -0.0077345046766229145]</t>
+    <t>[0.9999999999999998, 0.2237005394391424, 0.24193547414008984, 0.1867812922697022, 0.15051452684525699, 0.2920865368972126, 0.11409170326149035, 0.15433111304588826, 0.09382563982188796, 0.07907618101043881, 0.051600215024133395, 0.0643274123455422, 0.06436865044129719, 0.06953490476527115, 0.08382164172868767, 0.05318614501786818, 0.060788736756055804, 0.035325332113870594, 0.04045628581556891, 0.056161008731325415]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.039021367243806865, -0.03962206451261394, -0.11080412926579412, -0.10103245846086419, 0.11501162754860371, 0.04405893327624229, 0.06975241366443395, 0.05249830250051569, 0.01003841752488821, -0.06123170641211553, -0.056588627508584635, -0.004239215680666666, 0.06529947075769721, 0.06002949448740076, 0.042579714595193184, 0.011699159922507012, -0.045095453717996586, -0.05190180253862044, -0.01213801394163086]</t>
+    <t>[1.0, 0.03913338072760653, 0.020874618519919307, -0.013772535428039962, -0.022820436896887446, 0.36871159445622675, 0.018098668924043815, 0.035176792099186636, -0.016425063170030743, -0.038720528169120486, -0.06814024934802895, -0.06644768944194926, -0.047730441040245014, -0.013154894591108272, -0.004537972315194989, -0.04249198714239592, -0.03161990509103844, -0.07489218063751679, -0.02810092173319921, -0.025840168682221096]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.02800404312881378, -0.03915490178464849, -0.1094592149730696, -0.10055127640043746, 0.1166246745955697, 0.04323197148892527, 0.06885327006172234, 0.051851564729903044, 0.010726950661052545, -0.061028862408604195, -0.055889720525668665, -0.0035627482058093784, 0.06445604291370803, 0.05937541108242845, 0.04166736031663965, 0.011002756942662825, -0.04515298423819911, -0.05140633343544661, -0.01242231609379376]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.015543565146027932, -0.05678300431743438, -0.08513691516254077, -0.0779807172356123, 0.0883809376405582, 0.027801436607766603, 0.054217535103138446, 0.027984373031780675, 0.02355862316976007, -0.046619336765065036, -0.049529292943008126, -0.009306233735407713, 0.04134644488510075, 0.061638286339545094, 0.02176829380355141, 0.003155095691936866, -0.02909913112153751, -0.025078913919871253, -0.00922456320731567]</t>
+    <t>[1.0, 0.03329725706266905, 0.014974607464742384, -0.018467284287051224, -0.027453131000215843, 0.36409805119274957, 0.015468086317117132, 0.03233454061408948, -0.01842866708820073, -0.039908578049522435, -0.06905926144406371, -0.0674786921506437, -0.04865118921439881, -0.013365225752445673, -0.0044437035239168875, -0.04256092918061245, -0.03098647679531979, -0.07477324973963394, -0.028062415154028398, -0.0260257536905864]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.09071508327853119, 0.07460949812822336, 0.047103457004673145, 0.032956624299207204, 0.26327187823236897, -0.004547668357399099, 0.0036490514608332613, -0.035617818598510695, -0.03408407201077348, -0.07791255090882947, -0.061677421985105105, -0.05312756094979853, -0.02861495981134709, -0.014350636384890772, -0.05434678551296658, -0.03930066488466127, -0.04974780615952934, -0.022230318473961924, -0.017921063674342937]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.004368115679294608</v>
+        <v>0.001355084121477351</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7493248225319493</v>
+        <v>0.784460422979921</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.09692112984955804</v>
+        <v>0.0124336925513482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1947738358582437</v>
+        <v>-0.03112167765488559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5263056333029997</v>
+        <v>0.7400478591889543</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.04827340060413069</v>
+        <v>0.009780676976698474</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1420609670250029</v>
+        <v>0.02903522103190571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6091071972404386</v>
+        <v>0.7308083319954062</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0485946711154369</v>
+        <v>0.008304740614706463</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001164749121857428</v>
+        <v>7.755880483153177E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01606668237325724</v>
+        <v>0.0002786965357638375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8546626648064938</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007239527645970227</v>
+        <v>-0.0008095703757045144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1065348017690217</v>
+        <v>0.0003089844554185344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.953380352621733E-12</v>
+        <v>0.04987246469385138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.02462984614731465</v>
+        <v>0.9226407344809797</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02765459767099356</v>
+        <v>0.01507590581183422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.004354250325885725</v>
+        <v>0.0008968891137373567</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01382931840607366</v>
+        <v>0.0004708039690402119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.542682652197885E-10</v>
+        <v>0.06739404963471907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8570223187395618</v>
+        <v>0.8832691597146155</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-7.775238907544117E-06</v>
+        <v>0.0205642650368734</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7494930460353095</v>
+        <v>0.7589456554553519</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.24313438848231342, 0.22807726009317775, 0.18786307148781173, 0.17827591184769306, 0.40543785937290117, 0.11673511512741246, 0.1245904039469258, 0.062492425647096096, 0.0650209122358604, 0.017868192808470726, 0.018283071039443387, 0.02997217193708922, 0.03338297220103534, 0.04912243910981346, 0.013995660412526301, 0.019520701918165663, 0.004640502310788266, 0.042267882353372165, 0.041498659335557755]</t>
+    <t>[1.0, 0.24313438848231264, 0.22807726009317703, 0.18786307148781106, 0.17827591184769268, 0.4054378593729017, 0.11673511512741232, 0.12459040394692579, 0.06249242564709602, 0.06502091223586029, 0.01786819280847064, 0.01828307103944328, 0.029972171937089218, 0.03338297220103541, 0.04912243910981354, 0.01399566041252635, 0.019520701918165663, 0.00464050231078813, 0.04226788235337212, 0.041498659335557686]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.2237005394391424, 0.24193547414008984, 0.1867812922697022, 0.15051452684525699, 0.2920865368972126, 0.11409170326149035, 0.15433111304588826, 0.09382563982188796, 0.07907618101043881, 0.051600215024133395, 0.0643274123455422, 0.06436865044129719, 0.06953490476527115, 0.08382164172868767, 0.05318614501786818, 0.060788736756055804, 0.035325332113870594, 0.04045628581556891, 0.056161008731325415]</t>
+    <t>[0.9999999999999998, 0.2237005394391424, 0.24193547414008965, 0.18678129226970205, 0.15051452684525685, 0.2920865368972125, 0.11409170326149032, 0.15433111304588817, 0.09382563982188795, 0.07907618101043874, 0.05160021502413339, 0.0643274123455421, 0.06436865044129719, 0.06953490476527109, 0.08382164172868774, 0.053186145017868176, 0.06078873675605573, 0.03532533211387058, 0.04045628581556886, 0.05616100873132543]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.03913338072760653, 0.020874618519919307, -0.013772535428039962, -0.022820436896887446, 0.36871159445622675, 0.018098668924043815, 0.035176792099186636, -0.016425063170030743, -0.038720528169120486, -0.06814024934802895, -0.06644768944194926, -0.047730441040245014, -0.013154894591108272, -0.004537972315194989, -0.04249198714239592, -0.03161990509103844, -0.07489218063751679, -0.02810092173319921, -0.025840168682221096]</t>
+    <t>[1.0, 0.039133380727606526, 0.020874618519919303, -0.013772535428039977, -0.022820436896887453, 0.3687115944562266, 0.01809866892404383, 0.035176792099186616, -0.016425063170030733, -0.03872052816912049, -0.06814024934802897, -0.06644768944194923, -0.04773044104024503, -0.013154894591108272, -0.004537972315194993, -0.04249198714239594, -0.03161990509103843, -0.07489218063751679, -0.028100921733199214, -0.025840168682221082]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.03329725706266905, 0.014974607464742384, -0.018467284287051224, -0.027453131000215843, 0.36409805119274957, 0.015468086317117132, 0.03233454061408948, -0.01842866708820073, -0.039908578049522435, -0.06905926144406371, -0.0674786921506437, -0.04865118921439881, -0.013365225752445673, -0.0044437035239168875, -0.04256092918061245, -0.03098647679531979, -0.07477324973963394, -0.028062415154028398, -0.0260257536905864]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.09071508327853119, 0.07460949812822336, 0.047103457004673145, 0.032956624299207204, 0.26327187823236897, -0.004547668357399099, 0.0036490514608332613, -0.035617818598510695, -0.03408407201077348, -0.07791255090882947, -0.061677421985105105, -0.05312756094979853, -0.02861495981134709, -0.014350636384890772, -0.05434678551296658, -0.03930066488466127, -0.04974780615952934, -0.022230318473961924, -0.017921063674342937]</t>
+    <t>[1.0, 0.01789852680156473, 0.002188209575343952, -0.029168114886116817, -0.03860812204690106, 0.3535613662212514, 0.007978877135868739, 0.026571505720131585, -0.023120956850364367, -0.04252407758277085, -0.07083219553084537, -0.06770969815510613, -0.048788770399518816, -0.011475200317245419, -0.0018706501919445878, -0.040407288265010714, -0.0276421001839832, -0.07280793846158032, -0.02494389066282078, -0.024185481717208395]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.09071658084752543, 0.07461066824928873, 0.047104424561841406, 0.03295738676270176, 0.26327620836381765, -0.004546351074791585, 0.0036496619822095158, -0.03561734078954473, -0.03408412116637294, -0.07791281647790965, -0.061678357601200814, -0.053128277755579614, -0.028615618845388085, -0.014351779315919464, -0.0543477720102858, -0.03930135169030785, -0.049749123756565206, -0.02223161087642439, -0.017922007935255575]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001355084121477351</v>
+        <v>0.00135508412147735</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.784460422979921</v>
+        <v>0.7844604229799219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8105101649405447</v>
+        <v>0.4476694915254237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03112167765488559</v>
+        <v>-0.03112167765488563</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7400478591889543</v>
+        <v>0.7400478591889539</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02903522103190571</v>
+        <v>0.02903522103190573</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7308083319954062</v>
+        <v>0.7308083319954066</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.008304740614706463</v>
+        <v>0.008304740614706461</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7.755880483153177E-05</v>
+        <v>7.755880483153157E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008095703757045144</v>
+        <v>-0.001637589559034098</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0003089844554185344</v>
+        <v>0.000431138559511766</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04987246469385138</v>
+        <v>0.05777606416483109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9226407344809797</v>
+        <v>0.8932083875953859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01507590581183422</v>
+        <v>0.0386409933285852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008968891137373567</v>
+        <v>0.0008966255735714699</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0004708039690402119</v>
+        <v>0.0004707670538618379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06739404963471907</v>
+        <v>0.06738813263171262</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8832691597146155</v>
+        <v>0.8832761975978897</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0205642650368734</v>
+        <v>0.02056777856632749</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7589456554553519</v>
+        <v>0.7589503363540245</v>
       </c>
     </row>
   </sheetData>
